--- a/data/test/processed_data/corporation_index/上市信息财务信息盈利能力指标_index.xlsx
+++ b/data/test/processed_data/corporation_index/上市信息财务信息盈利能力指标_index.xlsx
@@ -88221,14 +88221,14 @@
       </c>
     </row>
     <row r="526" spans="1:55">
-      <c r="A526" t="s">
-        <v>55</v>
+      <c r="A526">
+        <v>4525</v>
       </c>
       <c r="B526">
         <v>-0.5</v>
       </c>
       <c r="C526">
-        <v>-0.5</v>
+        <v>28</v>
       </c>
       <c r="D526">
         <v>-0.5</v>
@@ -88240,22 +88240,22 @@
         <v>-0.5</v>
       </c>
       <c r="G526">
-        <v>-0.5</v>
+        <v>47</v>
       </c>
       <c r="H526">
-        <v>-0.5</v>
+        <v>12</v>
       </c>
       <c r="I526">
         <v>-0.5</v>
       </c>
       <c r="J526">
-        <v>3.94</v>
+        <v>38.33</v>
       </c>
       <c r="K526">
         <v>-0.5</v>
       </c>
       <c r="L526">
-        <v>-0.5</v>
+        <v>35.41</v>
       </c>
       <c r="M526">
         <v>-0.5</v>
@@ -88267,22 +88267,22 @@
         <v>-0.5</v>
       </c>
       <c r="P526">
-        <v>-0.5</v>
+        <v>39.11</v>
       </c>
       <c r="Q526">
-        <v>-0.5</v>
+        <v>10.91</v>
       </c>
       <c r="R526">
         <v>-0.5</v>
       </c>
       <c r="S526">
-        <v>4</v>
+        <v>33.77</v>
       </c>
       <c r="T526">
         <v>-0.5</v>
       </c>
       <c r="U526">
-        <v>-0.5</v>
+        <v>12.73</v>
       </c>
       <c r="V526">
         <v>-0.5</v>
@@ -88291,25 +88291,25 @@
         <v>-0.5</v>
       </c>
       <c r="X526">
-        <v>-0.5</v>
+        <v>30.91</v>
       </c>
       <c r="Y526">
-        <v>-0.5</v>
+        <v>18.98</v>
       </c>
       <c r="Z526">
-        <v>-0.5</v>
+        <v>5.59</v>
       </c>
       <c r="AA526">
         <v>-0.5</v>
       </c>
       <c r="AB526">
-        <v>1.42</v>
+        <v>18.85</v>
       </c>
       <c r="AC526">
         <v>-0.5</v>
       </c>
       <c r="AD526">
-        <v>-0.5</v>
+        <v>64.62</v>
       </c>
       <c r="AE526">
         <v>-0.5</v>
@@ -88318,25 +88318,25 @@
         <v>-0.5</v>
       </c>
       <c r="AG526">
-        <v>-0.5</v>
+        <v>67.47</v>
       </c>
       <c r="AH526">
-        <v>-0.5</v>
+        <v>67.03</v>
       </c>
       <c r="AI526">
-        <v>-0.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AJ526">
         <v>-0.5</v>
       </c>
       <c r="AK526">
-        <v>34.05</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AL526">
         <v>-0.5</v>
       </c>
       <c r="AM526">
-        <v>-0.5</v>
+        <v>17.85</v>
       </c>
       <c r="AN526">
         <v>-0.5</v>
@@ -88345,25 +88345,25 @@
         <v>-0.5</v>
       </c>
       <c r="AP526">
-        <v>-0.5</v>
+        <v>24.03</v>
       </c>
       <c r="AQ526">
-        <v>-0.5</v>
+        <v>23.28</v>
       </c>
       <c r="AR526">
-        <v>-0.5</v>
+        <v>25</v>
       </c>
       <c r="AS526">
         <v>-0.5</v>
       </c>
       <c r="AT526">
-        <v>6.89</v>
+        <v>28.23</v>
       </c>
       <c r="AU526">
         <v>-0.5</v>
       </c>
       <c r="AV526">
-        <v>-0.5</v>
+        <v>12.93</v>
       </c>
       <c r="AW526">
         <v>-0.5</v>
@@ -88372,30 +88372,30 @@
         <v>-0.5</v>
       </c>
       <c r="AY526">
-        <v>-0.5</v>
+        <v>12.19</v>
       </c>
       <c r="AZ526">
-        <v>-0.5</v>
+        <v>11.26</v>
       </c>
       <c r="BA526">
-        <v>-0.5</v>
+        <v>15.16</v>
       </c>
       <c r="BB526">
         <v>-0.5</v>
       </c>
       <c r="BC526">
-        <v>19.73</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="527" spans="1:55">
-      <c r="A527">
-        <v>4525</v>
+      <c r="A527" t="s">
+        <v>55</v>
       </c>
       <c r="B527">
         <v>-0.5</v>
       </c>
       <c r="C527">
-        <v>28</v>
+        <v>-0.5</v>
       </c>
       <c r="D527">
         <v>-0.5</v>
@@ -88407,22 +88407,22 @@
         <v>-0.5</v>
       </c>
       <c r="G527">
-        <v>47</v>
+        <v>-0.5</v>
       </c>
       <c r="H527">
-        <v>12</v>
+        <v>-0.5</v>
       </c>
       <c r="I527">
         <v>-0.5</v>
       </c>
       <c r="J527">
-        <v>38.33</v>
+        <v>3.94</v>
       </c>
       <c r="K527">
         <v>-0.5</v>
       </c>
       <c r="L527">
-        <v>35.41</v>
+        <v>-0.5</v>
       </c>
       <c r="M527">
         <v>-0.5</v>
@@ -88434,22 +88434,22 @@
         <v>-0.5</v>
       </c>
       <c r="P527">
-        <v>39.11</v>
+        <v>-0.5</v>
       </c>
       <c r="Q527">
-        <v>10.91</v>
+        <v>-0.5</v>
       </c>
       <c r="R527">
         <v>-0.5</v>
       </c>
       <c r="S527">
-        <v>33.77</v>
+        <v>4</v>
       </c>
       <c r="T527">
         <v>-0.5</v>
       </c>
       <c r="U527">
-        <v>12.73</v>
+        <v>-0.5</v>
       </c>
       <c r="V527">
         <v>-0.5</v>
@@ -88458,25 +88458,25 @@
         <v>-0.5</v>
       </c>
       <c r="X527">
-        <v>30.91</v>
+        <v>-0.5</v>
       </c>
       <c r="Y527">
-        <v>18.98</v>
+        <v>-0.5</v>
       </c>
       <c r="Z527">
-        <v>5.59</v>
+        <v>-0.5</v>
       </c>
       <c r="AA527">
         <v>-0.5</v>
       </c>
       <c r="AB527">
-        <v>18.85</v>
+        <v>1.42</v>
       </c>
       <c r="AC527">
         <v>-0.5</v>
       </c>
       <c r="AD527">
-        <v>64.62</v>
+        <v>-0.5</v>
       </c>
       <c r="AE527">
         <v>-0.5</v>
@@ -88485,25 +88485,25 @@
         <v>-0.5</v>
       </c>
       <c r="AG527">
-        <v>67.47</v>
+        <v>-0.5</v>
       </c>
       <c r="AH527">
-        <v>67.03</v>
+        <v>-0.5</v>
       </c>
       <c r="AI527">
-        <v>68.40000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AJ527">
         <v>-0.5</v>
       </c>
       <c r="AK527">
-        <v>66.90000000000001</v>
+        <v>34.05</v>
       </c>
       <c r="AL527">
         <v>-0.5</v>
       </c>
       <c r="AM527">
-        <v>17.85</v>
+        <v>-0.5</v>
       </c>
       <c r="AN527">
         <v>-0.5</v>
@@ -88512,25 +88512,25 @@
         <v>-0.5</v>
       </c>
       <c r="AP527">
-        <v>24.03</v>
+        <v>-0.5</v>
       </c>
       <c r="AQ527">
-        <v>23.28</v>
+        <v>-0.5</v>
       </c>
       <c r="AR527">
-        <v>25</v>
+        <v>-0.5</v>
       </c>
       <c r="AS527">
         <v>-0.5</v>
       </c>
       <c r="AT527">
-        <v>28.23</v>
+        <v>6.89</v>
       </c>
       <c r="AU527">
         <v>-0.5</v>
       </c>
       <c r="AV527">
-        <v>12.93</v>
+        <v>-0.5</v>
       </c>
       <c r="AW527">
         <v>-0.5</v>
@@ -88539,19 +88539,19 @@
         <v>-0.5</v>
       </c>
       <c r="AY527">
-        <v>12.19</v>
+        <v>-0.5</v>
       </c>
       <c r="AZ527">
-        <v>11.26</v>
+        <v>-0.5</v>
       </c>
       <c r="BA527">
-        <v>15.16</v>
+        <v>-0.5</v>
       </c>
       <c r="BB527">
         <v>-0.5</v>
       </c>
       <c r="BC527">
-        <v>12.72</v>
+        <v>19.73</v>
       </c>
     </row>
   </sheetData>
